--- a/meta/program/BlancoValueObjectConstants.xlsx
+++ b/meta/program/BlancoValueObjectConstants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObject/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF1EE27-7381-D440-820C-6DF857ED2107}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA67A2B4-C4B7-3A4F-AD30-2EC34605C20D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="1300" windowWidth="20040" windowHeight="15020" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,10 +162,6 @@
     <t>○</t>
   </si>
   <si>
-    <t>"2.0.4"</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>TARGET_STYLE_BLANCO</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -227,6 +223,10 @@
   </si>
   <si>
     <t>"main/java"</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>"2.1.1"</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1381,7 +1381,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E22" s="26" t="s">
         <v>32</v>
@@ -1415,16 +1415,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="D24" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="E24" s="26" t="s">
         <v>41</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>42</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24"/>
@@ -1435,16 +1435,16 @@
         <v>6</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25"/>
@@ -1455,16 +1455,16 @@
         <v>7</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26"/>
@@ -1475,16 +1475,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="26" t="s">
         <v>47</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>48</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27"/>
@@ -1495,16 +1495,16 @@
         <v>8</v>
       </c>
       <c r="B28" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>51</v>
-      </c>
       <c r="E28" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28"/>
